--- a/EXCEL_DASHBOARDS/StocksUSADashboard/StocksDashBoard_SPY500MW.xlsx
+++ b/EXCEL_DASHBOARDS/StocksUSADashboard/StocksDashBoard_SPY500MW.xlsx
@@ -5,12 +5,12 @@
   <workbookPr dateCompatibility="0" hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rikitapatangay/Documents/GitHub/DataAnalyticsProjects/StocksUSADashboard/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rikitapatangay/Documents/GitHub/DataAnalyticsProjects/EXCEL_DASHBOARDS/StocksUSADashboard/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D2650F5D-EE21-E245-BE8D-2C897B43E991}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{8BB72A39-F84F-EB4D-BC4E-2D8D99A68979}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SPY500MW" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="1" r:id="rId5"/>
+    <pivotCache cacheId="3" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="26" uniqueCount="19">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="41" uniqueCount="23">
   <si>
     <t>Date</t>
   </si>
@@ -111,6 +111,18 @@
   </si>
   <si>
     <t>Month</t>
+  </si>
+  <si>
+    <t>Sep</t>
+  </si>
+  <si>
+    <t>Oct</t>
+  </si>
+  <si>
+    <t>Nov</t>
+  </si>
+  <si>
+    <t>Dec</t>
   </si>
 </sst>
 </file>
@@ -1028,9 +1040,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Yearly!$I$22:$I$30</c:f>
+              <c:f>Yearly!$I$22:$I$34</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>Jan</c:v>
                 </c:pt>
@@ -1054,16 +1066,28 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Aug</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Sep</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Oct</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Nov</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Dec</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Yearly!$J$22:$J$30</c:f>
+              <c:f>Yearly!$J$22:$J$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>4053.72</c:v>
                 </c:pt>
@@ -1087,6 +1111,18 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>4578.83</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4083.67</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3881.85</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4023.34</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4087.14</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1144,9 +1180,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Yearly!$I$22:$I$30</c:f>
+              <c:f>Yearly!$I$22:$I$34</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>Jan</c:v>
                 </c:pt>
@@ -1170,16 +1206,28 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Aug</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Sep</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Oct</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Nov</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Dec</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Yearly!$K$22:$K$30</c:f>
+              <c:f>Yearly!$K$22:$K$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>4094.21</c:v>
                 </c:pt>
@@ -1203,6 +1251,18 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>4584.62</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4119.28</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3905.42</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4080.11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4100.96</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1254,9 +1314,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Yearly!$I$22:$I$30</c:f>
+              <c:f>Yearly!$I$22:$I$34</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>Jan</c:v>
                 </c:pt>
@@ -1280,16 +1340,28 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Aug</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Sep</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Oct</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Nov</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Dec</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Yearly!$L$22:$L$30</c:f>
+              <c:f>Yearly!$L$22:$L$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>4048.7</c:v>
                 </c:pt>
@@ -1313,6 +1385,18 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>4567.53</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4083.67</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3863.18</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4020.76</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4050.87</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1364,9 +1448,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Yearly!$I$22:$I$30</c:f>
+              <c:f>Yearly!$I$22:$I$34</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>Jan</c:v>
                 </c:pt>
@@ -1390,16 +1474,28 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Aug</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Sep</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Oct</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Nov</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Dec</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Yearly!$M$22:$M$30</c:f>
+              <c:f>Yearly!$M$22:$M$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>4076.6</c:v>
                 </c:pt>
@@ -1423,6 +1519,18 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>4576.7299999999996</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4110.41</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3901.06</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4080.11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4076.57</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1992,23 +2100,89 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Monthly!$B$4:$B$5</c:f>
+              <c:f>Monthly!$B$4:$B$16</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
+                  <c:v>Jan</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Feb</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Mar</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Apr</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>May</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Jun</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>Jul</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Aug</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Sep</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Oct</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Nov</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Dec</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Monthly!$C$4:$C$5</c:f>
+              <c:f>Monthly!$C$4:$C$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
+                  <c:v>4053.72</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4158.68</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4056.18</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4164.26</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4226.71</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4442.7</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>4598.26</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4578.83</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4083.67</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3881.85</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4023.34</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4087.14</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2060,23 +2234,89 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Monthly!$B$4:$B$5</c:f>
+              <c:f>Monthly!$B$4:$B$16</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
+                  <c:v>Jan</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Feb</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Mar</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Apr</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>May</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Jun</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>Jul</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Aug</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Sep</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Oct</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Nov</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Dec</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Monthly!$D$4:$D$5</c:f>
+              <c:f>Monthly!$D$4:$D$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
+                  <c:v>4094.21</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4195.4399999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4110.75</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4170.0600000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4231.1000000000004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4458.4799999999996</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>4607.07</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4584.62</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4119.28</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3905.42</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4080.11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4100.96</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2128,23 +2368,89 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Monthly!$B$4:$B$5</c:f>
+              <c:f>Monthly!$B$4:$B$16</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
+                  <c:v>Jan</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Feb</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Mar</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Apr</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>May</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Jun</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>Jul</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Aug</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Sep</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Oct</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Nov</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Dec</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Monthly!$E$4:$E$5</c:f>
+              <c:f>Monthly!$E$4:$E$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
+                  <c:v>4048.7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4141.88</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4056.18</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4140.3599999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4192.18</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4422.4399999999996</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>4573.1400000000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4567.53</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4083.67</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3863.18</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4020.76</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4050.87</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2196,23 +2502,89 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Monthly!$B$4:$B$5</c:f>
+              <c:f>Monthly!$B$4:$B$16</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
+                  <c:v>Jan</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Feb</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Mar</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Apr</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>May</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Jun</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>Jul</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Aug</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Sep</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Oct</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Nov</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Dec</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Monthly!$F$4:$F$5</c:f>
+              <c:f>Monthly!$F$4:$F$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
+                  <c:v>4076.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4179.76</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4109.3100000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4169.4799999999996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4205.5200000000004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4450.38</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>4588.96</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4576.7299999999996</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4110.41</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3901.06</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4080.11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4076.57</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3554,9 +3926,69 @@
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="19"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="75%"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="circle"/>
+          <c:size val="5"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="50%"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="75%"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="20"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="75%"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="circle"/>
+          <c:size val="5"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="50%"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="75%"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="21"/>
@@ -3647,9 +4079,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Yearly!$I$22:$I$30</c:f>
+              <c:f>Yearly!$I$22:$I$34</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>Jan</c:v>
                 </c:pt>
@@ -3673,16 +4105,28 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Aug</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Sep</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Oct</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Nov</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Dec</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Yearly!$J$22:$J$30</c:f>
+              <c:f>Yearly!$J$22:$J$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>4053.72</c:v>
                 </c:pt>
@@ -3706,6 +4150,18 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>4578.83</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4083.67</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3881.85</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4023.34</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4087.14</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3763,9 +4219,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Yearly!$I$22:$I$30</c:f>
+              <c:f>Yearly!$I$22:$I$34</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>Jan</c:v>
                 </c:pt>
@@ -3789,16 +4245,28 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Aug</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Sep</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Oct</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Nov</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Dec</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Yearly!$K$22:$K$30</c:f>
+              <c:f>Yearly!$K$22:$K$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>4094.21</c:v>
                 </c:pt>
@@ -3822,6 +4290,18 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>4584.62</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4119.28</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3905.42</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4080.11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4100.96</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3873,9 +4353,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Yearly!$I$22:$I$30</c:f>
+              <c:f>Yearly!$I$22:$I$34</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>Jan</c:v>
                 </c:pt>
@@ -3899,16 +4379,28 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Aug</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Sep</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Oct</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Nov</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Dec</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Yearly!$L$22:$L$30</c:f>
+              <c:f>Yearly!$L$22:$L$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>4048.7</c:v>
                 </c:pt>
@@ -3932,6 +4424,18 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>4567.53</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4083.67</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3863.18</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4020.76</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4050.87</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3983,9 +4487,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Yearly!$I$22:$I$30</c:f>
+              <c:f>Yearly!$I$22:$I$34</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>Jan</c:v>
                 </c:pt>
@@ -4009,16 +4513,28 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Aug</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Sep</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Oct</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Nov</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Dec</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Yearly!$M$22:$M$30</c:f>
+              <c:f>Yearly!$M$22:$M$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>4076.6</c:v>
                 </c:pt>
@@ -4042,6 +4558,18 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>4576.7299999999996</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4110.41</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3901.06</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4080.11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4076.57</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5154,23 +5682,89 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Monthly!$B$4:$B$5</c:f>
+              <c:f>Monthly!$B$4:$B$16</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
+                  <c:v>Jan</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Feb</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Mar</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Apr</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>May</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Jun</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>Jul</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Aug</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Sep</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Oct</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Nov</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Dec</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Monthly!$C$4:$C$5</c:f>
+              <c:f>Monthly!$C$4:$C$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
+                  <c:v>4053.72</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4158.68</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4056.18</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4164.26</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4226.71</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4442.7</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>4598.26</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4578.83</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4083.67</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3881.85</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4023.34</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4087.14</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5222,23 +5816,89 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Monthly!$B$4:$B$5</c:f>
+              <c:f>Monthly!$B$4:$B$16</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
+                  <c:v>Jan</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Feb</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Mar</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Apr</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>May</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Jun</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>Jul</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Aug</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Sep</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Oct</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Nov</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Dec</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Monthly!$D$4:$D$5</c:f>
+              <c:f>Monthly!$D$4:$D$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
+                  <c:v>4094.21</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4195.4399999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4110.75</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4170.0600000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4231.1000000000004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4458.4799999999996</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>4607.07</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4584.62</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4119.28</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3905.42</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4080.11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4100.96</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5288,23 +5948,89 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Monthly!$B$4:$B$5</c:f>
+              <c:f>Monthly!$B$4:$B$16</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
+                  <c:v>Jan</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Feb</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Mar</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Apr</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>May</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Jun</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>Jul</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Aug</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Sep</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Oct</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Nov</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Dec</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Monthly!$E$4:$E$5</c:f>
+              <c:f>Monthly!$E$4:$E$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
+                  <c:v>4048.7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4141.88</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4056.18</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4140.3599999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4192.18</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4422.4399999999996</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>4573.1400000000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4567.53</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4083.67</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3863.18</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4020.76</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4050.87</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5354,23 +6080,89 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Monthly!$B$4:$B$5</c:f>
+              <c:f>Monthly!$B$4:$B$16</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
+                  <c:v>Jan</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Feb</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Mar</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Apr</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>May</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Jun</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>Jul</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Aug</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Sep</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Oct</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Nov</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Dec</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Monthly!$F$4:$F$5</c:f>
+              <c:f>Monthly!$F$4:$F$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
+                  <c:v>4076.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4179.76</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4109.3100000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4169.4799999999996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4205.5200000000004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4450.38</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>4588.96</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4576.7299999999996</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4110.41</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3901.06</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4080.11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4076.57</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7836,8 +8628,8 @@
       <xdr:row>31</xdr:row>
       <xdr:rowOff>193672</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="5" name="Date">
@@ -7860,7 +8652,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -7919,8 +8711,8 @@
       <xdr:row>35</xdr:row>
       <xdr:rowOff>187346</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="4" name="Years">
@@ -7943,7 +8735,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -8425,8 +9217,8 @@
       <xdr:row>64</xdr:row>
       <xdr:rowOff>61950</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="12" name="Date 1">
@@ -8449,7 +9241,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -8503,8 +9295,8 @@
       <xdr:row>53</xdr:row>
       <xdr:rowOff>30975</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="13" name="Choose Year for Viewing">
@@ -8527,7 +9319,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -8666,8 +9458,8 @@
       <xdr:row>28</xdr:row>
       <xdr:rowOff>163590</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="14" name="Years 2">
@@ -8690,7 +9482,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -11166,8 +11958,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A95B656E-B06D-F741-B9E6-7D16CFE93E15}" name="PivotTable16" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5" rowHeaderCaption="Month">
-  <location ref="I21:M30" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A95B656E-B06D-F741-B9E6-7D16CFE93E15}" name="PivotTable16" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5" rowHeaderCaption="Month">
+  <location ref="I21:M34" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField axis="axisRow" numFmtId="14" showAll="0">
       <items count="15">
@@ -11461,10 +12253,10 @@
     </pivotField>
     <pivotField showAll="0">
       <items count="5">
-        <item h="1" sd="0" x="0"/>
-        <item h="1" x="1"/>
+        <item sd="0" x="0"/>
+        <item x="1"/>
         <item sd="0" x="2"/>
-        <item h="1" sd="0" x="3"/>
+        <item sd="0" x="3"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -11472,7 +12264,7 @@
   <rowFields count="1">
     <field x="0"/>
   </rowFields>
-  <rowItems count="9">
+  <rowItems count="13">
     <i>
       <x v="1"/>
     </i>
@@ -11496,6 +12288,18 @@
     </i>
     <i>
       <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="12"/>
     </i>
     <i t="grand">
       <x/>
@@ -11731,25 +12535,25 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{DD29D6FA-F770-0E40-B192-44B5984EE745}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5" rowHeaderCaption="Month">
-  <location ref="B3:F5" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{DD29D6FA-F770-0E40-B192-44B5984EE745}" name="PivotTable1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5" rowHeaderCaption="Month">
+  <location ref="B3:F16" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField axis="axisRow" numFmtId="14" showAll="0">
       <items count="15">
-        <item h="1" x="0"/>
-        <item h="1" x="1"/>
-        <item h="1" x="2"/>
-        <item h="1" x="3"/>
-        <item h="1" x="4"/>
-        <item h="1" x="5"/>
-        <item h="1" x="6"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
         <item x="7"/>
-        <item h="1" x="8"/>
-        <item h="1" x="9"/>
-        <item h="1" x="10"/>
-        <item h="1" x="11"/>
-        <item h="1" x="12"/>
-        <item h="1" x="13"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -11760,19 +12564,52 @@
     <pivotField showAll="0" defaultSubtotal="0"/>
     <pivotField showAll="0" defaultSubtotal="0">
       <items count="4">
-        <item h="1" x="0"/>
-        <item h="1" x="1"/>
+        <item x="0"/>
+        <item x="1"/>
         <item x="2"/>
-        <item h="1" x="3"/>
+        <item x="3"/>
       </items>
     </pivotField>
   </pivotFields>
   <rowFields count="1">
     <field x="0"/>
   </rowFields>
-  <rowItems count="2">
+  <rowItems count="13">
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
     <i>
       <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="12"/>
     </i>
     <i t="grand">
       <x/>
@@ -11895,10 +12732,10 @@
   <data>
     <tabular pivotCacheId="328216001">
       <items count="4">
-        <i x="1"/>
+        <i x="1" s="1"/>
         <i x="2" s="1"/>
-        <i x="0" nd="1"/>
-        <i x="3" nd="1"/>
+        <i x="0" s="1" nd="1"/>
+        <i x="3" s="1" nd="1"/>
       </items>
     </tabular>
   </data>
@@ -11918,20 +12755,20 @@
   <data>
     <tabular pivotCacheId="328216001">
       <items count="14">
-        <i x="1"/>
-        <i x="2"/>
-        <i x="3"/>
-        <i x="4"/>
-        <i x="5"/>
-        <i x="6"/>
+        <i x="1" s="1"/>
+        <i x="2" s="1"/>
+        <i x="3" s="1"/>
+        <i x="4" s="1"/>
+        <i x="5" s="1"/>
+        <i x="6" s="1"/>
         <i x="7" s="1"/>
-        <i x="8"/>
-        <i x="9" nd="1"/>
-        <i x="10" nd="1"/>
-        <i x="11" nd="1"/>
-        <i x="12" nd="1"/>
-        <i x="0" nd="1"/>
-        <i x="13" nd="1"/>
+        <i x="8" s="1"/>
+        <i x="9" s="1"/>
+        <i x="10" s="1"/>
+        <i x="11" s="1"/>
+        <i x="12" s="1"/>
+        <i x="0" s="1" nd="1"/>
+        <i x="13" s="1" nd="1"/>
       </items>
     </tabular>
   </data>
@@ -11951,10 +12788,10 @@
   <data>
     <tabular pivotCacheId="328216001">
       <items count="4">
+        <i x="1" s="1"/>
         <i x="2" s="1"/>
-        <i x="0" nd="1"/>
-        <i x="3" nd="1"/>
-        <i x="1" nd="1"/>
+        <i x="0" s="1" nd="1"/>
+        <i x="3" s="1" nd="1"/>
       </items>
     </tabular>
   </data>
@@ -11976,9 +12813,7 @@
 <slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
   <slicer name="Years" xr10:uid="{B33665F7-95BE-884A-BCA5-C2210B546715}" cache="Slicer_Years" caption="Years" rowHeight="251883"/>
   <slicer name="Years 2" xr10:uid="{BBB0CED3-5C68-EF46-B6BA-F26F1E17D73A}" cache="Slicer_Years" caption="Years" style="SlicerStyleDark1" rowHeight="251883"/>
-  <slicer name="Years 3" xr10:uid="{98316A29-9801-4B41-B2F0-E1B72BC5B9BA}" cache="Slicer_Years" caption="Years" rowHeight="251883"/>
   <slicer name="Date 1" xr10:uid="{FCE76B42-1F59-8249-BA80-A344F41DEEC9}" cache="Slicer_Date" caption="Date" columnCount="2" style="SlicerStyleDark1" rowHeight="251883"/>
-  <slicer name="Date 2" xr10:uid="{33795D60-FFF1-334E-85AD-EA68150D1DA7}" cache="Slicer_Date" caption="Date" rowHeight="251883"/>
   <slicer name="Choose Year for Viewing" xr10:uid="{8596A654-4153-CF4E-A656-77ABC454400D}" cache="Slicer_Years1" caption="Years" style="SlicerStyleDark1" rowHeight="251883"/>
 </slicers>
 </file>
@@ -16868,73 +17703,133 @@
     <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" s="1"/>
       <c r="I30" s="4" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="J30" s="6">
-        <v>4598.26</v>
+        <v>4083.67</v>
       </c>
       <c r="K30" s="6">
-        <v>4607.07</v>
+        <v>4119.28</v>
       </c>
       <c r="L30" s="6">
-        <v>4573.1400000000003</v>
+        <v>4083.67</v>
       </c>
       <c r="M30" s="6">
-        <v>4588.96</v>
+        <v>4110.41</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" s="1"/>
+      <c r="I31" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J31" s="6">
+        <v>3881.85</v>
+      </c>
+      <c r="K31" s="6">
+        <v>3905.42</v>
+      </c>
+      <c r="L31" s="6">
+        <v>3863.18</v>
+      </c>
+      <c r="M31" s="6">
+        <v>3901.06</v>
+      </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" s="1"/>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="I32" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J32" s="6">
+        <v>4023.34</v>
+      </c>
+      <c r="K32" s="6">
+        <v>4080.11</v>
+      </c>
+      <c r="L32" s="6">
+        <v>4020.76</v>
+      </c>
+      <c r="M32" s="6">
+        <v>4080.11</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" s="1"/>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="I33" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J33" s="6">
+        <v>4087.14</v>
+      </c>
+      <c r="K33" s="6">
+        <v>4100.96</v>
+      </c>
+      <c r="L33" s="6">
+        <v>4050.87</v>
+      </c>
+      <c r="M33" s="6">
+        <v>4076.57</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" s="1"/>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="I34" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J34" s="6">
+        <v>4598.26</v>
+      </c>
+      <c r="K34" s="6">
+        <v>4607.07</v>
+      </c>
+      <c r="L34" s="6">
+        <v>4573.1400000000003</v>
+      </c>
+      <c r="M34" s="6">
+        <v>4588.96</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" s="1"/>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" s="1"/>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" s="1"/>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" s="1"/>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39" s="1"/>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A40" s="1"/>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A41" s="1"/>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42" s="1"/>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43" s="1"/>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A44" s="1"/>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A45" s="1"/>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A46" s="1"/>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A47" s="1"/>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A48" s="1"/>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.2">
@@ -17560,7 +18455,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC045747-7071-9046-A65A-D2B2D19243F7}">
-  <dimension ref="B3:F5"/>
+  <dimension ref="B3:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="O23" sqref="O23"/>
@@ -17595,35 +18490,222 @@
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B4" s="4" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C4" s="6">
-        <v>4598.26</v>
+        <v>4053.72</v>
       </c>
       <c r="D4" s="6">
-        <v>4607.07</v>
+        <v>4094.21</v>
       </c>
       <c r="E4" s="6">
-        <v>4573.1400000000003</v>
+        <v>4048.7</v>
       </c>
       <c r="F4" s="6">
-        <v>4588.96</v>
+        <v>4076.6</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="6">
+        <v>4158.68</v>
+      </c>
+      <c r="D5" s="6">
+        <v>4195.4399999999996</v>
+      </c>
+      <c r="E5" s="6">
+        <v>4141.88</v>
+      </c>
+      <c r="F5" s="6">
+        <v>4179.76</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="6">
+        <v>4056.18</v>
+      </c>
+      <c r="D6" s="6">
+        <v>4110.75</v>
+      </c>
+      <c r="E6" s="6">
+        <v>4056.18</v>
+      </c>
+      <c r="F6" s="6">
+        <v>4109.3100000000004</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="6">
+        <v>4164.26</v>
+      </c>
+      <c r="D7" s="6">
+        <v>4170.0600000000004</v>
+      </c>
+      <c r="E7" s="6">
+        <v>4140.3599999999997</v>
+      </c>
+      <c r="F7" s="6">
+        <v>4169.4799999999996</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="6">
+        <v>4226.71</v>
+      </c>
+      <c r="D8" s="6">
+        <v>4231.1000000000004</v>
+      </c>
+      <c r="E8" s="6">
+        <v>4192.18</v>
+      </c>
+      <c r="F8" s="6">
+        <v>4205.5200000000004</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="6">
+        <v>4442.7</v>
+      </c>
+      <c r="D9" s="6">
+        <v>4458.4799999999996</v>
+      </c>
+      <c r="E9" s="6">
+        <v>4422.4399999999996</v>
+      </c>
+      <c r="F9" s="6">
+        <v>4450.38</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B10" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="6">
+        <v>4598.26</v>
+      </c>
+      <c r="D10" s="6">
+        <v>4607.07</v>
+      </c>
+      <c r="E10" s="6">
+        <v>4573.1400000000003</v>
+      </c>
+      <c r="F10" s="6">
+        <v>4588.96</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B11" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="6">
+        <v>4578.83</v>
+      </c>
+      <c r="D11" s="6">
+        <v>4584.62</v>
+      </c>
+      <c r="E11" s="6">
+        <v>4567.53</v>
+      </c>
+      <c r="F11" s="6">
+        <v>4576.7299999999996</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B12" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="6">
+        <v>4083.67</v>
+      </c>
+      <c r="D12" s="6">
+        <v>4119.28</v>
+      </c>
+      <c r="E12" s="6">
+        <v>4083.67</v>
+      </c>
+      <c r="F12" s="6">
+        <v>4110.41</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B13" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="6">
+        <v>3881.85</v>
+      </c>
+      <c r="D13" s="6">
+        <v>3905.42</v>
+      </c>
+      <c r="E13" s="6">
+        <v>3863.18</v>
+      </c>
+      <c r="F13" s="6">
+        <v>3901.06</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B14" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="6">
+        <v>4023.34</v>
+      </c>
+      <c r="D14" s="6">
+        <v>4080.11</v>
+      </c>
+      <c r="E14" s="6">
+        <v>4020.76</v>
+      </c>
+      <c r="F14" s="6">
+        <v>4080.11</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B15" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="6">
+        <v>4087.14</v>
+      </c>
+      <c r="D15" s="6">
+        <v>4100.96</v>
+      </c>
+      <c r="E15" s="6">
+        <v>4050.87</v>
+      </c>
+      <c r="F15" s="6">
+        <v>4076.57</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B16" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C16" s="6">
         <v>4598.26</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D16" s="6">
         <v>4607.07</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E16" s="6">
         <v>4573.1400000000003</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F16" s="6">
         <v>4588.96</v>
       </c>
     </row>
@@ -17644,7 +18726,7 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{714C682E-8FEB-8A4D-8CB9-C9131ED2CA31}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="125" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="75" zoomScaleNormal="125" workbookViewId="0">
       <selection activeCell="AA20" sqref="AA20"/>
     </sheetView>
   </sheetViews>
